--- a/Companies/Bank - Public/UCO Bank Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
+++ b/Companies/Bank - Public/UCO Bank Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '22</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '22</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '22</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '23</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '23</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '23</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '22</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '22</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '22</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -512,37 +489,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2,141.37</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2,389.55</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2,773.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3,039.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>3,314.01</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3,039.33</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2,773.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2,389.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2,141.37</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>3314.01</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>2141.37</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>2731.502</v>
       </c>
     </row>
     <row r="5">
@@ -553,37 +521,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>1,534.81</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1,547.58</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1,577.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1,563.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>1,509.92</t>
         </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1,563.46</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1,577.38</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1,547.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1,534.81</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1577.38</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>1509.92</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>1546.63</v>
       </c>
     </row>
     <row r="6">
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>116.86</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>212.87</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>232.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>339.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>355.60</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>339.49</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>232.78</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>212.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>116.86</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>355.6</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>116.86</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>251.52</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>58.03</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>34.89</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>45.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>44.39</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>45.13</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>43.74</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>34.89</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>58.03</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>58.03</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>34.89</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>45.236</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>-54.47</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>779.94</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>823.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>959.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>633.02</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>959.53</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>823.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>779.94</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-54.47</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>959.53</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>-54.47</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>628.296</v>
       </c>
     </row>
     <row r="9"/>
@@ -725,37 +657,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2,201.53</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2,415.29</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2,675.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3,015.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>3,215.13</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3,015.30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2,675.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2,415.29</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2,201.53</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>3215.13</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>2201.53</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>2704.506</v>
       </c>
     </row>
     <row r="12">
@@ -766,37 +689,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>822.38</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>945.75</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,047.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,057.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,028.19</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,057.57</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,047.04</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>945.75</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>822.38</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1057.57</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>822.38</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>980.186</v>
       </c>
     </row>
     <row r="13">
@@ -807,37 +721,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>332.75</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>414.02</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>374.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>517.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>411.27</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>517.01</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>374.39</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>414.02</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>332.75</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>517.01</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>332.75</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>409.888</v>
       </c>
     </row>
     <row r="14">
@@ -848,37 +753,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>439.94</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,189.77</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,353.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,357.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,202.35</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,357.06</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,353.90</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,189.77</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>439.94</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1357.06</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>439.94</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1108.604</v>
       </c>
     </row>
     <row r="15">
@@ -889,37 +785,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>246.83</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>405.76</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>332.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>450.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>855.69</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>450.54</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>332.42</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>405.76</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>246.83</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>855.6900000000001</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>246.83</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>458.248</v>
       </c>
     </row>
     <row r="16">
@@ -930,37 +817,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>193.11</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>784.01</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,021.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>906.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>346.66</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>906.52</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1,021.48</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>784.01</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>193.11</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>1021.48</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>193.11</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>650.356</v>
       </c>
     </row>
     <row r="17">
@@ -971,37 +849,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>279.49</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>368.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>325.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>123.18</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>325.28</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>368.51</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>279.49</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>368.51</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>233.192</v>
       </c>
     </row>
     <row r="18">
@@ -1012,37 +881,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>123.61</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>504.52</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>652.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>581.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>223.48</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>581.24</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>652.97</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>504.52</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>123.61</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>652.97</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>123.61</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>417.164</v>
       </c>
     </row>
     <row r="19">
@@ -1053,37 +913,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>123.61</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>504.52</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>652.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>581.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>223.48</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>581.24</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>652.97</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>504.52</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>123.61</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>652.97</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>123.61</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>417.164</v>
       </c>
     </row>
     <row r="20">
@@ -1117,15 +968,6 @@
           <t>11,955.96</t>
         </is>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>11955.96</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>11955.96</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>11955.96</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1135,37 +977,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>8,905.35</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8,905.35</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8,905.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>11,005.25</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>11,005.25</t>
         </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>8,905.35</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>8,905.35</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8,905.35</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>11005.25</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>8905.35</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>9745.310000000001</v>
       </c>
     </row>
     <row r="22"/>
@@ -1207,15 +1040,6 @@
           <t>95.39</t>
         </is>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>95.39</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>95.39</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>95.39</v>
-      </c>
     </row>
     <row r="25"/>
     <row r="26">
@@ -1233,37 +1057,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>0.19</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>0.35</v>
       </c>
     </row>
     <row r="28">
@@ -1274,37 +1089,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>0.19</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>0.35</v>
       </c>
     </row>
     <row r="29"/>
@@ -1323,37 +1129,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>0.19</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>0.35</v>
       </c>
     </row>
     <row r="32">
@@ -1364,37 +1161,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>0.19</t>
         </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>0.35</v>
       </c>
     </row>
     <row r="33"/>
@@ -1413,37 +1201,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>9,739.65</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>9,358.92</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8,506.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>7,726.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>7,354.77</t>
         </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>7,726.46</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>8,506.08</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>9,358.92</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>9,739.65</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>9739.65</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>7354.77</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>8537.175999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1454,37 +1233,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>3,103.82</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2,700.29</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2,406.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2,018.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>1,877.11</t>
         </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2,018.02</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2,406.90</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2,700.29</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3,103.82</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>3103.82</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>1877.11</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>2421.228</v>
       </c>
     </row>
     <row r="37">
@@ -1495,37 +1265,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>4.48</t>
         </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>5.778</v>
       </c>
     </row>
     <row r="38">
@@ -1536,37 +1297,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>1.18</t>
         </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>1.722</v>
       </c>
     </row>
     <row r="39">
@@ -1577,37 +1329,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>0.86</t>
         </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>0.658</v>
       </c>
     </row>
     <row r="40"/>
@@ -1650,37 +1393,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>202206</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>202209</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>202303</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>202306</t>
         </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>202303</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>202212</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>202209</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>202206</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>202306</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>202206</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>202247.2</v>
       </c>
     </row>
   </sheetData>
